--- a/Code/ann_fit_mean.xlsx
+++ b/Code/ann_fit_mean.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
   <si>
     <t>DE</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -99,11 +99,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -149,6 +153,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,108 +169,108 @@
   <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>13.552980553943351</v>
+        <v>0.69084289510885044</v>
       </c>
       <c r="B2">
-        <v>13.316581763132689</v>
+        <v>0.69115219104976988</v>
       </c>
       <c r="C2">
-        <v>11.532014363874444</v>
+        <v>6.6442209303995154</v>
       </c>
       <c r="D2">
-        <v>9.2574161401154775</v>
+        <v>1.0872173019573081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>145.55832950182429</v>
+        <v>19.183708514117917</v>
       </c>
       <c r="B3">
-        <v>170.65029612388224</v>
+        <v>18.96500234787009</v>
       </c>
       <c r="C3">
-        <v>145.14842120664443</v>
+        <v>19.566122590971045</v>
       </c>
       <c r="D3">
-        <v>129.55093408265515</v>
+        <v>16.930198321129751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>125988.78728907285</v>
+        <v>25.813953736654931</v>
       </c>
       <c r="B4">
-        <v>126369.8130563611</v>
+        <v>24.61651507354134</v>
       </c>
       <c r="C4">
-        <v>125690.38432428642</v>
+        <v>114509.13622481935</v>
       </c>
       <c r="D4">
-        <v>125090.04149585564</v>
+        <v>24.301040103186303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>13250.355468099229</v>
+        <v>2070.4779553738981</v>
       </c>
       <c r="B5">
-        <v>13458.755557504785</v>
+        <v>1856.5280800438159</v>
       </c>
       <c r="C5">
-        <v>13130.703737264224</v>
+        <v>5317.598518917539</v>
       </c>
       <c r="D5">
-        <v>12994.90284988709</v>
+        <v>1965.3404272935022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1003026.4028231982</v>
+        <v>129011.41429598676</v>
       </c>
       <c r="B6">
-        <v>1003836.2511289149</v>
+        <v>78638.398341146225</v>
       </c>
       <c r="C6">
-        <v>1003245.5957792541</v>
+        <v>990855.47723597789</v>
       </c>
       <c r="D6">
-        <v>1001485.1381745732</v>
+        <v>56109.720250523613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>203.64813114605624</v>
+        <v>31.942923571636982</v>
       </c>
       <c r="B7">
-        <v>235.18686469759402</v>
+        <v>20.010035780395377</v>
       </c>
       <c r="C7">
-        <v>203.57311667483435</v>
+        <v>24.533645862794216</v>
       </c>
       <c r="D7">
-        <v>174.97940570301847</v>
+        <v>20.334296085842574</v>
       </c>
     </row>
   </sheetData>
